--- a/data/trans_dic/P22$mutaSS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00934209237320994</v>
+        <v>0.008482554211006009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002872057593281995</v>
+        <v>0.002211312614445935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005128069321012496</v>
+        <v>0.005161146296536533</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01467037194098129</v>
+        <v>0.01456131322873332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006973010471926491</v>
+        <v>0.007198777057623925</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.001171813762595445</v>
+        <v>0.001102472742538079</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0008324508743070555</v>
+        <v>0.0007169316476641668</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01396024919184345</v>
+        <v>0.0137624813420216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006168538088829526</v>
+        <v>0.006367004347857197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003808858416380611</v>
+        <v>0.004069057813714676</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0008240669144391472</v>
+        <v>0.0008368440482008421</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02457523237621888</v>
+        <v>0.02438139850136399</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01352458057403306</v>
+        <v>0.01233630803649322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01997815526537634</v>
+        <v>0.02069185521328454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.009291503443462456</v>
+        <v>0.007513125521886212</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02991175058212662</v>
+        <v>0.03134524796899428</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02012972462350458</v>
+        <v>0.02039079238831997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01080063589234188</v>
+        <v>0.01139567937259018</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.006310426774814073</v>
+        <v>0.006280735554846287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02516036249022162</v>
+        <v>0.02550892861889636</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01502437532557986</v>
+        <v>0.01538095069560222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01236814161265822</v>
+        <v>0.01199635581707548</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.005580536410409593</v>
+        <v>0.005340221161389624</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01828450954117624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02505372783170847</v>
+        <v>0.02505372783170846</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0325081751800441</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01994713793890771</v>
+        <v>0.0202253560342719</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01760562197263819</v>
+        <v>0.0174493234110356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01318484791343296</v>
+        <v>0.01264281220348122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01876005576246584</v>
+        <v>0.01857016909416965</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02498096201642141</v>
+        <v>0.02428632021325172</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01305456649466996</v>
+        <v>0.01336173624752152</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004870644459643453</v>
+        <v>0.004493143396085609</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006344918644783949</v>
+        <v>0.00646169508597256</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02412870433871318</v>
+        <v>0.02413222486817685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01686414141963586</v>
+        <v>0.01700250838318855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009874492720948726</v>
+        <v>0.01009529612750376</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01352612396926555</v>
+        <v>0.01370929106638507</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03639901122962092</v>
+        <v>0.03739464706115235</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03269153465862609</v>
+        <v>0.03264102922003377</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02454651294505355</v>
+        <v>0.02522402316922772</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03377002094593812</v>
+        <v>0.03446498473273551</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04210548300376389</v>
+        <v>0.0433714253850109</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02709696615334434</v>
+        <v>0.02705508902774403</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01381385101468804</v>
+        <v>0.01304332698307907</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01343242845131239</v>
+        <v>0.01305019145432039</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0361073070736932</v>
+        <v>0.03601462064117258</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02710183394994719</v>
+        <v>0.02717928499981595</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01713621846798132</v>
+        <v>0.01716196431510528</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02176485534626975</v>
+        <v>0.02181436770374187</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05717898929024723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04987685414742119</v>
+        <v>0.04987685414742118</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0697580926904847</v>
@@ -969,7 +969,7 @@
         <v>0.05158754562716598</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05322812631406985</v>
+        <v>0.05322812631406984</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07645515991536243</v>
+        <v>0.07733331039959464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05358238080070019</v>
+        <v>0.0541732436983175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03931167425800122</v>
+        <v>0.0410726023672949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03572754680606228</v>
+        <v>0.03504023866627204</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04971078824343114</v>
+        <v>0.04858638979861504</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03224088872849763</v>
+        <v>0.03250737988602038</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02778167426721734</v>
+        <v>0.03056772227013435</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04442365052300914</v>
+        <v>0.04338647728358298</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06902896845908731</v>
+        <v>0.06967550298521824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04826103513149079</v>
+        <v>0.04831431181804786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03994910723432614</v>
+        <v>0.03867527621117137</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04322256476798024</v>
+        <v>0.04346306658643393</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1304163976126692</v>
+        <v>0.1270410889250855</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.106349596490348</v>
+        <v>0.1076840205482727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08122969644298154</v>
+        <v>0.08157699604992232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06924782532816648</v>
+        <v>0.06883832857821491</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09649151335043217</v>
+        <v>0.09959117793442758</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07743863962754356</v>
+        <v>0.08060961151175043</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06704003218328332</v>
+        <v>0.07070163358977614</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07114692067643173</v>
+        <v>0.06978134825225689</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1033845617259642</v>
+        <v>0.1047705809690887</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08399404122250548</v>
+        <v>0.08348278792359777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06813580594762322</v>
+        <v>0.06857345382935705</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06366396370468824</v>
+        <v>0.06408935810036841</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01785557049921011</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02159336921707433</v>
+        <v>0.02159336921707432</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02125751859551941</v>
+        <v>0.02064914136231542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0182243602156876</v>
+        <v>0.01816895613671867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02136741447354506</v>
+        <v>0.02099181734910682</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01644185500448631</v>
+        <v>0.01661374829237561</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009253046505252967</v>
+        <v>0.009544897025100611</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0142516311003974</v>
+        <v>0.01411040117400924</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02006674699417717</v>
+        <v>0.01992730694156112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01468241321851988</v>
+        <v>0.01443248067360613</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01831202475914206</v>
+        <v>0.01861737675900782</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03236772133151636</v>
+        <v>0.03240623941279735</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02849302360494706</v>
+        <v>0.02848545275142483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03260778533861543</v>
+        <v>0.03285903856852009</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02657392814347195</v>
+        <v>0.02645997708506356</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01733656009361638</v>
+        <v>0.01799267807390689</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02098392886107546</v>
+        <v>0.0209265704965338</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02772234959223824</v>
+        <v>0.02798624964283567</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02122081779258033</v>
+        <v>0.02118068675671408</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02506822736883563</v>
+        <v>0.02527585237367467</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9612</v>
+        <v>8728</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2799</v>
+        <v>2155</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3862</v>
+        <v>3887</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19281</v>
+        <v>19137</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9328</v>
+        <v>9631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1161</v>
+        <v>1092</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>684</v>
+        <v>589</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32711</v>
+        <v>32247</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14264</v>
+        <v>14723</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6642</v>
+        <v>7096</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1154</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25285</v>
+        <v>25086</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13182</v>
+        <v>12023</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15047</v>
+        <v>15585</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5375</v>
+        <v>4347</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39312</v>
+        <v>41196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26929</v>
+        <v>27279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10700</v>
+        <v>11290</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5183</v>
+        <v>5158</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>58954</v>
+        <v>59771</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34743</v>
+        <v>35568</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21569</v>
+        <v>20920</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7812</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33708</v>
+        <v>34178</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34559</v>
+        <v>34253</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27340</v>
+        <v>26216</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>41846</v>
+        <v>41422</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39632</v>
+        <v>38530</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22947</v>
+        <v>23487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9675</v>
+        <v>8925</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13771</v>
+        <v>14024</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79054</v>
+        <v>79065</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>62748</v>
+        <v>63263</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>40091</v>
+        <v>40987</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>59527</v>
+        <v>60333</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61509</v>
+        <v>63191</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64173</v>
+        <v>64074</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>50900</v>
+        <v>52305</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>75326</v>
+        <v>76876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66800</v>
+        <v>68808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>47631</v>
+        <v>47558</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27440</v>
+        <v>25910</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29153</v>
+        <v>28323</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>118300</v>
+        <v>117996</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>100840</v>
+        <v>101128</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>69574</v>
+        <v>69678</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>95785</v>
+        <v>96003</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42158</v>
+        <v>42642</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25783</v>
+        <v>26067</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21461</v>
+        <v>22422</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25423</v>
+        <v>24934</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23683</v>
+        <v>23147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14787</v>
+        <v>14909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15256</v>
+        <v>16786</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32646</v>
+        <v>31884</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70949</v>
+        <v>71614</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>45356</v>
+        <v>45406</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>43747</v>
+        <v>42352</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>62520</v>
+        <v>62868</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71913</v>
+        <v>70051</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51173</v>
+        <v>51816</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44345</v>
+        <v>44535</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49276</v>
+        <v>48984</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45970</v>
+        <v>47446</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35516</v>
+        <v>36970</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36814</v>
+        <v>38825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52284</v>
+        <v>51281</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106261</v>
+        <v>107685</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>78939</v>
+        <v>78458</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>74613</v>
+        <v>75092</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>92088</v>
+        <v>92703</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72675</v>
+        <v>70595</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61465</v>
+        <v>61279</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>75228</v>
+        <v>73906</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>58438</v>
+        <v>59049</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32629</v>
+        <v>33658</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>53109</v>
+        <v>52583</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>139926</v>
+        <v>138954</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>101294</v>
+        <v>99570</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>132711</v>
+        <v>134924</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>110659</v>
+        <v>110790</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>96099</v>
+        <v>96073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>114802</v>
+        <v>115686</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>94450</v>
+        <v>94045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>61134</v>
+        <v>63448</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78197</v>
+        <v>77983</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>193309</v>
+        <v>195149</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>146402</v>
+        <v>146126</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>181674</v>
+        <v>183179</v>
       </c>
     </row>
     <row r="20">
